--- a/document files/01_요구사항 분석/2조 요건정의서_0712_최한비.xlsx
+++ b/document files/01_요구사항 분석/2조 요건정의서_0712_최한비.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82103\OneDrive\바탕 화면\2조 프로젝트\.프로젝트 샘플\01_요구사항 분석\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\document\document files\01_요구사항 분석\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12972"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12972"/>
   </bookViews>
   <sheets>
     <sheet name="요건정의서" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="269">
   <si>
     <t>통계</t>
   </si>
@@ -363,10 +363,6 @@
   </si>
   <si>
     <t>예약조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원의 등급을 표시(VIP:단골고객. UG:블랙리스트 고객, SG: 일반고객)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1151,6 +1147,14 @@
   </si>
   <si>
     <t>가입시 작성한 정보 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약회원 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약한 회원을 정보를 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1571,7 +1575,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1656,12 +1660,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1704,19 +1702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1740,13 +1726,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2062,10 +2054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I85"/>
+  <dimension ref="B1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2078,109 +2070,109 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>191</v>
+      <c r="F2" s="30" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="9"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45" t="s">
-        <v>210</v>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50" t="s">
+        <v>209</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="9"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="9"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="9"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="9"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="9"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45" t="s">
-        <v>95</v>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50" t="s">
+        <v>94</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="9"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
@@ -2190,8 +2182,8 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="9"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="3" t="s">
         <v>25</v>
       </c>
@@ -2201,9 +2193,9 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="9"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45" t="s">
-        <v>96</v>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50" t="s">
+        <v>95</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>27</v>
@@ -2214,8 +2206,8 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="9"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="3" t="s">
         <v>31</v>
       </c>
@@ -2225,8 +2217,8 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="9"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="3" t="s">
         <v>32</v>
       </c>
@@ -2236,8 +2228,8 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="9"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="3" t="s">
         <v>30</v>
       </c>
@@ -2247,21 +2239,21 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="9"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45" t="s">
-        <v>97</v>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50" t="s">
+        <v>96</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="9"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="3" t="s">
         <v>38</v>
       </c>
@@ -2271,8 +2263,8 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="9"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="3" t="s">
         <v>39</v>
       </c>
@@ -2282,8 +2274,8 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="9"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="3" t="s">
         <v>40</v>
       </c>
@@ -2293,8 +2285,8 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="9"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="3" t="s">
         <v>41</v>
       </c>
@@ -2304,271 +2296,270 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="9"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46" t="s">
-        <v>221</v>
+      <c r="C21" s="50"/>
+      <c r="D21" s="53" t="s">
+        <v>220</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="9"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="47"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="9"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="47"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="9"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="47"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="9"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="47"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" s="9"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="47"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="40"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="47" t="s">
+      <c r="B27" s="38"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="54" t="s">
         <v>0</v>
       </c>
       <c r="E27" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="38"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F28" s="27" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="40"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="26" t="s">
+    <row r="29" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="38"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F29" s="27" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="40"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="40"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="29"/>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B30" s="5"/>
+      <c r="C30" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="5"/>
-      <c r="C31" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>218</v>
-      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" s="9"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="57" t="s">
-        <v>103</v>
-      </c>
+      <c r="C32" s="48"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="3" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="9"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="58"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="44"/>
       <c r="E33" s="3" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>87</v>
+        <v>236</v>
       </c>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B34" s="9"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="49" t="s">
-        <v>96</v>
-      </c>
+      <c r="B34" s="42"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="9"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="50"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="3" t="s">
-        <v>86</v>
+        <v>267</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>84</v>
+        <v>268</v>
       </c>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B36" s="9"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="50"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="43" t="s">
+        <v>240</v>
+      </c>
       <c r="E36" s="3" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>237</v>
+        <v>116</v>
       </c>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" s="9"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="51"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="44"/>
       <c r="E37" s="3" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" s="9"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="49" t="s">
-        <v>241</v>
-      </c>
+      <c r="C38" s="48"/>
+      <c r="D38" s="44"/>
       <c r="E38" s="3" t="s">
-        <v>116</v>
+        <v>245</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>117</v>
+        <v>237</v>
       </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" s="9"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="50"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="44"/>
       <c r="E39" s="3" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B40" s="9"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="50"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="44"/>
       <c r="E40" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B41" s="39"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B41" s="9"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="F41" s="10"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B42" s="41"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="50"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="44"/>
       <c r="E42" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>240</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="F42" s="10"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B43" s="41"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="50"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="3" t="s">
         <v>247</v>
       </c>
@@ -2576,299 +2567,260 @@
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B44" s="41"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="3" t="s">
-        <v>249</v>
-      </c>
+      <c r="B44" s="40"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44" s="3"/>
       <c r="F44" s="10"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B45" s="9"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="3" t="s">
-        <v>248</v>
-      </c>
+      <c r="B45" s="40"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="3"/>
       <c r="F45" s="10"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B46" s="42"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="49" t="s">
-        <v>252</v>
-      </c>
-      <c r="E46" s="3"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="F46" s="10"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B47" s="42"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="3"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="F47" s="10"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B48" s="41"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F48" s="10"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B49" s="41"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="51"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B49" s="9"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="45"/>
       <c r="E49" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F49" s="10"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="14"/>
-      <c r="C50" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B50" s="9"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B51" s="9"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B51" s="9"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="51"/>
       <c r="E51" s="3" t="s">
-        <v>108</v>
+        <v>265</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B52" s="9"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="C52" s="50"/>
+      <c r="D52" s="44"/>
       <c r="E52" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B53" s="9"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="49" t="s">
-        <v>107</v>
-      </c>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B53" s="41"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="44"/>
       <c r="E53" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B54" s="9"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="43" t="s">
+        <v>101</v>
+      </c>
       <c r="E54" s="3" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B55" s="43"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="50"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B55" s="9"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="3" t="s">
-        <v>264</v>
+        <v>32</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B56" s="9"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="51"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="43" t="s">
+        <v>250</v>
+      </c>
       <c r="E56" s="3" t="s">
-        <v>5</v>
+        <v>259</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B57" s="9"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="49" t="s">
-        <v>102</v>
-      </c>
+      <c r="C57" s="50"/>
+      <c r="D57" s="44"/>
       <c r="E57" s="3" t="s">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B58" s="9"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="51"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B58" s="40"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="43" t="s">
+        <v>249</v>
+      </c>
       <c r="E58" s="3" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B59" s="9"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="49" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B59" s="40"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="40"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B61" s="9"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B60" s="9"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B61" s="9"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B62" s="42"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="49" t="s">
-        <v>250</v>
-      </c>
+      <c r="E61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B62" s="9"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="44"/>
       <c r="E62" s="3" t="s">
-        <v>253</v>
+        <v>8</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B63" s="42"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="42"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B65" s="9"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="49" t="s">
-        <v>252</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B66" s="9"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="9"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="12"/>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E82" s="1"/>
-    </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E85" s="1"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="9"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="12"/>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E78" s="1"/>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E81" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="C31:C49"/>
-    <mergeCell ref="C50:C67"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D38:D45"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="C3:C30"/>
+  <mergeCells count="19">
+    <mergeCell ref="C3:C29"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="D16:D20"/>
     <mergeCell ref="D21:D26"/>
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C30:C47"/>
+    <mergeCell ref="C48:C63"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="D36:D43"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="D44:D45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2895,30 +2847,30 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:5" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
+      <c r="B2" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
     </row>
     <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="24" t="s">
         <v>191</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B4" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
@@ -2927,12 +2879,12 @@
         <v>12</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B5" s="45" t="s">
-        <v>94</v>
+      <c r="B5" s="50" t="s">
+        <v>93</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -2941,11 +2893,11 @@
         <v>74</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B6" s="45"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
@@ -2953,11 +2905,11 @@
         <v>18</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B7" s="45"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
@@ -2965,11 +2917,11 @@
         <v>19</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B8" s="45"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
@@ -2977,11 +2929,11 @@
         <v>20</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="45"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
@@ -2989,25 +2941,25 @@
         <v>21</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B10" s="45" t="s">
-        <v>95</v>
+      <c r="B10" s="50" t="s">
+        <v>94</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B11" s="45"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
@@ -3015,11 +2967,11 @@
         <v>24</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B12" s="45"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
@@ -3027,12 +2979,12 @@
         <v>26</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B13" s="45" t="s">
-        <v>96</v>
+      <c r="B13" s="50" t="s">
+        <v>95</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>27</v>
@@ -3041,11 +2993,11 @@
         <v>29</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="45"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
@@ -3055,7 +3007,7 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="45"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
@@ -3065,7 +3017,7 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="45"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
@@ -3075,8 +3027,8 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B17" s="45" t="s">
-        <v>97</v>
+      <c r="B17" s="50" t="s">
+        <v>96</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>36</v>
@@ -3085,11 +3037,11 @@
         <v>37</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B18" s="45"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
@@ -3097,11 +3049,11 @@
         <v>42</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="45"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
@@ -3111,7 +3063,7 @@
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="45"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
@@ -3121,7 +3073,7 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="45"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="3" t="s">
         <v>41</v>
       </c>
@@ -3132,30 +3084,30 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="49" t="s">
-        <v>101</v>
+      <c r="B23" s="43" t="s">
+        <v>100</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="50"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="3" t="s">
         <v>76</v>
       </c>
@@ -3163,35 +3115,35 @@
         <v>69</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="50"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B26" s="50"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="50"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="3" t="s">
         <v>80</v>
       </c>
@@ -3199,23 +3151,23 @@
         <v>79</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="50"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="51"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="3" t="s">
         <v>9</v>
       </c>
@@ -3223,69 +3175,69 @@
         <v>82</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B31" s="44"/>
+      <c r="C31" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="50"/>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B32" s="44"/>
+      <c r="C32" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="50"/>
-      <c r="C32" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="E32" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="50"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B34" s="45"/>
+      <c r="C34" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="51"/>
-      <c r="C34" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
@@ -3326,44 +3278,44 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:5" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
+      <c r="B2" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="2:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="D3" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>191</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>83</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="65" t="s">
-        <v>103</v>
+      <c r="B5" s="61" t="s">
+        <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>1</v>
@@ -3372,24 +3324,24 @@
         <v>46</v>
       </c>
       <c r="E5" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="61"/>
+      <c r="C6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="65"/>
-      <c r="C6" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E6" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="66" t="s">
-        <v>102</v>
+      <c r="B7" s="62" t="s">
+        <v>101</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>27</v>
@@ -3398,35 +3350,35 @@
         <v>29</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="66"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="66"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="66"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
@@ -3434,49 +3386,49 @@
         <v>85</v>
       </c>
       <c r="E10" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="67" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
     <row r="12" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="66"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="66"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="66"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="3" t="s">
         <v>50</v>
       </c>
@@ -3484,11 +3436,11 @@
         <v>51</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="66"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="3" t="s">
         <v>52</v>
       </c>
@@ -3496,24 +3448,24 @@
         <v>53</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="66"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="66" t="s">
-        <v>101</v>
+      <c r="B17" s="62" t="s">
+        <v>100</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>2</v>
@@ -3522,11 +3474,11 @@
         <v>48</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="66"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="3" t="s">
         <v>3</v>
       </c>
@@ -3534,11 +3486,11 @@
         <v>47</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="66"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="3" t="s">
         <v>55</v>
       </c>
@@ -3546,19 +3498,19 @@
         <v>56</v>
       </c>
       <c r="E19" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="64"/>
+      <c r="C20" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="68"/>
-      <c r="C20" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3594,30 +3546,30 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:5" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
+      <c r="B2" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="2:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="38" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="4" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B4" s="69" t="s">
-        <v>178</v>
+      <c r="B4" s="65" t="s">
+        <v>177</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>4</v>
@@ -3626,36 +3578,36 @@
         <v>57</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="66"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="66"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>179</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
@@ -3664,11 +3616,11 @@
         <v>58</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="62" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -3678,47 +3630,47 @@
         <v>60</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="66"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="66"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="62"/>
+      <c r="C11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="66"/>
-      <c r="C11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
     <row r="12" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="66"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
@@ -3726,12 +3678,12 @@
         <v>61</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="66" t="s">
-        <v>102</v>
+      <c r="B13" s="62" t="s">
+        <v>101</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>27</v>
@@ -3740,11 +3692,11 @@
         <v>62</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="66"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
@@ -3752,11 +3704,11 @@
         <v>63</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="66"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
@@ -3764,11 +3716,11 @@
         <v>65</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="66"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="3" t="s">
         <v>32</v>
       </c>
@@ -3776,12 +3728,12 @@
         <v>64</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="66" t="s">
-        <v>110</v>
+      <c r="B17" s="62" t="s">
+        <v>109</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
@@ -3790,11 +3742,11 @@
         <v>66</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="66"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
@@ -3802,11 +3754,11 @@
         <v>67</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="66"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
@@ -3814,26 +3766,26 @@
         <v>68</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="21" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="66" t="s">
-        <v>115</v>
+      <c r="B21" s="62" t="s">
+        <v>114</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>71</v>
@@ -3842,31 +3794,31 @@
         <v>69</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="66"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="68"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>155</v>
+        <v>113</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
